--- a/modelo6/origen/ficheros/cs/FICHA_RESUMEN_PLACO23 (Modelo6).xlsx
+++ b/modelo6/origen/ficheros/cs/FICHA_RESUMEN_PLACO23 (Modelo6).xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trabajo\catastro\modelo6\origen\ficheros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trabajo\catastro\modelo6\origen\ficheros\cs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7998DA-EDD3-41E2-B715-8D6FA82E96B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAD1F0A-ECF8-4D2F-AD30-24D328F7B06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FICHA RESUMEN PLACO" sheetId="7" r:id="rId1"/>
-    <sheet name="prueba" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'FICHA RESUMEN PLACO'!$A$1:$AA$78</definedName>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>LOCAL</t>
   </si>
@@ -340,7 +339,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -509,6 +508,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1396,6 +1400,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1487,6 +1495,73 @@
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>95250</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>304800</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>333375</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6151" name="Check Box 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6151"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B85EAF3-0B1E-C35F-D808-633C4166285D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1789,8 +1864,8 @@
   </sheetPr>
   <dimension ref="A1:AN78"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:AA11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25:AA25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2271,9 +2346,7 @@
       <c r="D20" s="80"/>
       <c r="E20" s="80"/>
       <c r="F20" s="81"/>
-      <c r="G20" s="42" t="s">
-        <v>14</v>
-      </c>
+      <c r="G20" s="42"/>
       <c r="H20" s="40" t="s">
         <v>25</v>
       </c>
@@ -4024,17 +4097,33 @@
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A146DE-BF77-4999-8E83-F1FFF5121DFA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6151" r:id="rId7" name="Check Box 7">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>114300</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>304800</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>333375</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>